--- a/data/trans_dic/P78_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P78_2023-Edad-trans_dic.xlsx
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.8556756156844272</v>
+        <v>0.8556756156844275</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.8786631060315273</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.8665299239976488</v>
+        <v>0.8665299239976487</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.7827518122709319</v>
+        <v>0.7896671300654382</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.8181241695020329</v>
+        <v>0.8112328152669454</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.8200805335568996</v>
+        <v>0.8227448145570704</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.906119402612161</v>
+        <v>0.9069490669945641</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9247653615337598</v>
+        <v>0.9213852958386345</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8981044572477692</v>
+        <v>0.9032810881955426</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.9268932413713504</v>
+        <v>0.924898011159799</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.8841015719773858</v>
+        <v>0.8822810548469195</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.9126931866628553</v>
+        <v>0.9129906693481165</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9781586490071311</v>
+        <v>0.9771786295560547</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9428874453199853</v>
+        <v>0.9395735518954204</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9525280378700891</v>
+        <v>0.951778725530821</v>
       </c>
     </row>
     <row r="10">
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.9827677271805817</v>
+        <v>0.9827677271805818</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.9544380375704962</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.9673460361877885</v>
+        <v>0.9674667948708304</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.9356507375165035</v>
+        <v>0.9381219084500099</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.957288828452604</v>
+        <v>0.9579296337379448</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9917277480132313</v>
+        <v>0.9922306591950973</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9678322638324462</v>
+        <v>0.9682923585121265</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9769716271884575</v>
+        <v>0.9775806593952273</v>
       </c>
     </row>
     <row r="13">
@@ -729,13 +729,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.9605757337169036</v>
+        <v>0.9605757337169034</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.9344977561446203</v>
+        <v>0.9344977561446205</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.9470727262971227</v>
+        <v>0.9470727262971225</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.9415288631284979</v>
+        <v>0.940062178190069</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.9154304920266458</v>
+        <v>0.9172149260048506</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.9337358146200143</v>
+        <v>0.933482928734542</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9764176083602552</v>
+        <v>0.9761290111362756</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.9485803659390388</v>
+        <v>0.9484845903836934</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9577476060254132</v>
+        <v>0.9588117534437394</v>
       </c>
     </row>
     <row r="16">
@@ -787,7 +787,7 @@
         <v>0.9715416534641115</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.7321326099203597</v>
+        <v>0.7321326099203596</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.8371003288622436</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.947262933826679</v>
+        <v>0.9479267253856113</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.697757957381308</v>
+        <v>0.6981552067426497</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.8164603184899778</v>
+        <v>0.8150537762029652</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9862597113780537</v>
+        <v>0.9854830758301496</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.7615374749218995</v>
+        <v>0.7600078180847765</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8576309756429077</v>
+        <v>0.858346470452736</v>
       </c>
     </row>
     <row r="19">
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.646932315174948</v>
+        <v>0.6437068889989631</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.127642149737289</v>
+        <v>0.1288905051270857</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2063346189929547</v>
+        <v>0.2033172773933236</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.8838951580893171</v>
+        <v>0.8823752466392075</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.2014191901773975</v>
+        <v>0.2019270850349624</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.2919992125127494</v>
+        <v>0.2906090704973416</v>
       </c>
     </row>
     <row r="22">
@@ -894,13 +894,13 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.4808784723212912</v>
+        <v>0.4808784723212913</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>0.09888336088347244</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1073793233626844</v>
+        <v>0.1073793233626843</v>
       </c>
     </row>
     <row r="23">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1698645881009706</v>
+        <v>0.147770768321873</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.06945981590462534</v>
+        <v>0.072673513572899</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.0803279413505182</v>
+        <v>0.08056240361684205</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.8924251133784483</v>
+        <v>0.818374666649175</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1283597051369989</v>
+        <v>0.1268746469805963</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1376337188711352</v>
+        <v>0.1431924406469986</v>
       </c>
     </row>
     <row r="25">
@@ -949,7 +949,7 @@
         </is>
       </c>
       <c r="C25" s="5" t="n">
-        <v>0.94603301393177</v>
+        <v>0.9460330139317702</v>
       </c>
       <c r="D25" s="5" t="n">
         <v>0.7667759827088031</v>
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.9314674318280844</v>
+        <v>0.9319032442755407</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.7535919355079969</v>
+        <v>0.7520832779206509</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.8378481942069994</v>
+        <v>0.8384092055529448</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.9573235433288995</v>
+        <v>0.9571891430337899</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.7805075141317626</v>
+        <v>0.7811545316952804</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.8567642617854185</v>
+        <v>0.8566555622068365</v>
       </c>
     </row>
     <row r="28">
@@ -1134,13 +1134,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>293019</v>
+        <v>295608</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>273980</v>
+        <v>271672</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>581628</v>
+        <v>583518</v>
       </c>
     </row>
     <row r="7">
@@ -1151,13 +1151,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>339201</v>
+        <v>339512</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>309693</v>
+        <v>308561</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>636965</v>
+        <v>640637</v>
       </c>
     </row>
     <row r="8">
@@ -1206,13 +1206,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>405375</v>
+        <v>404502</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>392488</v>
+        <v>391680</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>804346</v>
+        <v>804608</v>
       </c>
     </row>
     <row r="11">
@@ -1223,13 +1223,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>427796</v>
+        <v>427367</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>418585</v>
+        <v>417114</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>839452</v>
+        <v>838791</v>
       </c>
     </row>
     <row r="12">
@@ -1278,13 +1278,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>538087</v>
+        <v>538154</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>498075</v>
+        <v>499390</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1042087</v>
+        <v>1042785</v>
       </c>
     </row>
     <row r="15">
@@ -1295,13 +1295,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>551650</v>
+        <v>551929</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>515206</v>
+        <v>515451</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1063514</v>
+        <v>1064177</v>
       </c>
     </row>
     <row r="16">
@@ -1350,13 +1350,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>552253</v>
+        <v>551393</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>576572</v>
+        <v>577696</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1135783</v>
+        <v>1135476</v>
       </c>
     </row>
     <row r="19">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>572717</v>
+        <v>572547</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>597451</v>
+        <v>597391</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1164991</v>
+        <v>1166285</v>
       </c>
     </row>
     <row r="20">
@@ -1422,13 +1422,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>333037</v>
+        <v>333270</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>314198</v>
+        <v>314376</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>654698</v>
+        <v>653570</v>
       </c>
     </row>
     <row r="23">
@@ -1439,13 +1439,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>346747</v>
+        <v>346474</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>342917</v>
+        <v>342228</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>687712</v>
+        <v>688286</v>
       </c>
     </row>
     <row r="24">
@@ -1494,13 +1494,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>21143</v>
+        <v>21038</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>27099</v>
+        <v>27364</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>50549</v>
+        <v>49810</v>
       </c>
     </row>
     <row r="27">
@@ -1511,13 +1511,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>28887</v>
+        <v>28838</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>42762</v>
+        <v>42870</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>71535</v>
+        <v>71195</v>
       </c>
     </row>
     <row r="28">
@@ -1566,13 +1566,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>958</v>
+        <v>833</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>17220</v>
+        <v>18017</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>20367</v>
+        <v>20427</v>
       </c>
     </row>
     <row r="31">
@@ -1583,13 +1583,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>5032</v>
+        <v>4615</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>31822</v>
+        <v>31454</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>34897</v>
+        <v>36306</v>
       </c>
     </row>
     <row r="32">
@@ -1638,13 +1638,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>2183725</v>
+        <v>2184747</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>2148871</v>
+        <v>2144569</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>4353373</v>
+        <v>4356288</v>
       </c>
     </row>
     <row r="35">
@@ -1655,13 +1655,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>2244342</v>
+        <v>2244027</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>2225621</v>
+        <v>2227466</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>4451659</v>
+        <v>4451094</v>
       </c>
     </row>
     <row r="36">
